--- a/biology/Médecine/Marc-Antoine_Petit/Marc-Antoine_Petit.xlsx
+++ b/biology/Médecine/Marc-Antoine_Petit/Marc-Antoine_Petit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marc-Antoine Petit, né le 3 novembre 1766 à Lyon, et mort le 7 juillet 1811 à Villeurbanne, est un chirurgien français qui fut le premier à occuper le poste de chirurgien-major de l’Hôtel-Dieu de Lyon ; il est l’initiateur de l’enseignement médico-chirurgical de Lyon, qui aboutira en 1821, à la création de l’École secondaire de Médecine.
 </t>
@@ -511,19 +523,21 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marc-Antoine Petit est né à Lyon, le 3 novembre 1766. Il est le fils de Jeanne Petit, née à Louhans le 1er novembre 1737 d'un père notaire à Branges, et de Mathieu Nantas (né à Lyon le 20 août 1739, et mort le 18 mars 1815) marchand de soie à Lyon[1]. Ses parents ne se marièrent pas et Marc-Antoine garda le nom de sa mère.
-Après des études au collège de Beaujeu, il est mis en pension chez Honoré-Joseph Pointe, membre du Collège des Chirurgiens de Lyon ; grâce à ce tutorat, il est autorisé, dès l’âge de 16 ans à suivre les pansements à l’Hôtel-Dieu, puis les cours d’anatomie et de physiologie des membres du Collège[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc-Antoine Petit est né à Lyon, le 3 novembre 1766. Il est le fils de Jeanne Petit, née à Louhans le 1er novembre 1737 d'un père notaire à Branges, et de Mathieu Nantas (né à Lyon le 20 août 1739, et mort le 18 mars 1815) marchand de soie à Lyon. Ses parents ne se marièrent pas et Marc-Antoine garda le nom de sa mère.
+Après des études au collège de Beaujeu, il est mis en pension chez Honoré-Joseph Pointe, membre du Collège des Chirurgiens de Lyon ; grâce à ce tutorat, il est autorisé, dès l’âge de 16 ans à suivre les pansements à l’Hôtel-Dieu, puis les cours d’anatomie et de physiologie des membres du Collège.
 Dès 1783, il obtient par concours la place de chirurgien interne à l’Hôpital de la Charité à Lyon. À la fin de son internat, il se rend à Paris où il est admis à l’École pratique de Chirurgie.
 De retour à Lyon, il postule en 1787 au poste de chirurgien interne de l’Hôtel-Dieu et il est reçu en seconde position. L’administration de l’Hôtel-Dieu ayant réhabilité le concours de chirurgien-major en avril 1788, il s’y présente en juin de la même année et dès le 12 juin, il est proclamé chirurgien-major.
 Comme il en avait le devoir, il se rendit à Paris pour suivre l’enseignement de Pierre-Joseph Desault, puis à Montpellier pour s’y perfectionner en médecine ; et c’est en octobre 1790, qu’il obtint le titre de docteur en médecine avec une thèse sur la phtisie laryngée.
-Le 2 septembre 1792, il épouse, à Chalon-sur-Saône, Julie Michelin, ils eurent deux filles et un fils[1].
+Le 2 septembre 1792, il épouse, à Chalon-sur-Saône, Julie Michelin, ils eurent deux filles et un fils.
 Ayant eu à subir le siège de Lyon et après s’être caché quelque temps, il prit enfin possession de son poste de chirurgien major, le 4 décembre 1793. La justesse de son diagnostic et le succès de ses opérations assirent rapidement sa réputation qui rayonna sur la France entière et même à l’étranger.
-Si Marc-Antoine Petit fut un grand chirurgien, c’est surtout comme professeur qu’il occupe une place importante dans la chirurgie lyonnaise : il entreprit de créer à l’Hôtel-Dieu un enseignement médico-chirurgical qui sera le prélude à la création de l’École secondaire de Médecine de Lyon, vingt deux ans plus tard, en 1821. C'est le 5 décembre 1795 que fut inauguré le premier cours de clinique chirurgicale[3].
+Si Marc-Antoine Petit fut un grand chirurgien, c’est surtout comme professeur qu’il occupe une place importante dans la chirurgie lyonnaise : il entreprit de créer à l’Hôtel-Dieu un enseignement médico-chirurgical qui sera le prélude à la création de l’École secondaire de Médecine de Lyon, vingt deux ans plus tard, en 1821. C'est le 5 décembre 1795 que fut inauguré le premier cours de clinique chirurgicale.
 Le 2 décembre 1799, il prononça le discours d’adieu qui met fin à ses fonctions de chirurgien-major et de professeur de clinique chirurgicale.
-Il fut conseiller municipal de Lyon, président de la Société nationale de médecine et des sciences médicales de Lyon et président de l’Académie des sciences, belles-lettres et arts de Lyon[2].
-Il meurt dans sa maison de campagne de Villeurbanne, le 7 juillet 1811 ; son corps est transféré au cimetière de Loyasse en 1812[1].
+Il fut conseiller municipal de Lyon, président de la Société nationale de médecine et des sciences médicales de Lyon et président de l’Académie des sciences, belles-lettres et arts de Lyon.
+Il meurt dans sa maison de campagne de Villeurbanne, le 7 juillet 1811 ; son corps est transféré au cimetière de Loyasse en 1812.
 </t>
         </is>
       </c>
@@ -552,9 +566,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1806, il réunit tous les discours qu’il prononça à l’occasion de l’ouverture de ses cours, en un Essai sur la Médecine du Cœur[4]. Cet ouvrage, réédité en 1823, qui n’a rien à voir avec la pathologie de cet organe, concerne les qualités de cœur du médecin.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1806, il réunit tous les discours qu’il prononça à l’occasion de l’ouverture de ses cours, en un Essai sur la Médecine du Cœur. Cet ouvrage, réédité en 1823, qui n’a rien à voir avec la pathologie de cet organe, concerne les qualités de cœur du médecin.
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La rue Marc-Antoine-Petit lui est dédiée dès les années 1830 dans le 2e arrondissement de Lyon, dans le quartier Sainte-Blandine[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rue Marc-Antoine-Petit lui est dédiée dès les années 1830 dans le 2e arrondissement de Lyon, dans le quartier Sainte-Blandine.
 En 1825 son buste fut réalisé par le sculpteur Jean-François Legendre-Héral, pour orner un des angles de l'Hôtel-Dieu de Lyon.
 </t>
         </is>
